--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_10.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_10.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9781405450516789</v>
+        <v>0.8484702593171316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7705112404874016</v>
+        <v>0.6340872445535843</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7892480955076554</v>
+        <v>0.7429497119863022</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9788763490534664</v>
+        <v>0.7780849993877964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09099056480059835</v>
+        <v>0.359154675373454</v>
       </c>
       <c r="G2" t="n">
-        <v>1.534592391559319</v>
+        <v>2.446860280543495</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7538473422715711</v>
+        <v>0.9194539755929311</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05894592271683956</v>
+        <v>0.2882593070597016</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5844695231457914</v>
+        <v>1.227076546820496</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3016464234838503</v>
+        <v>0.5992951487985315</v>
       </c>
       <c r="L2" t="n">
-        <v>2.39900511669255</v>
+        <v>0.7936616297084346</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3063970531179233</v>
+        <v>0.6087334483167451</v>
       </c>
       <c r="N2" t="n">
-        <v>134.7939989227014</v>
+        <v>36.0480042653218</v>
       </c>
       <c r="O2" t="n">
-        <v>276.1291714659178</v>
+        <v>73.01258785354763</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9779611712398627</v>
+        <v>0.8485293195980043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7703034724535341</v>
+        <v>0.6339812093427466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7897633440334537</v>
+        <v>0.7428554441945125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9802363457307337</v>
+        <v>0.7793456315743845</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09173721308099594</v>
+        <v>0.3590146911306994</v>
       </c>
       <c r="G3" t="n">
-        <v>1.535981737358475</v>
+        <v>2.447569338486615</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7520043281706169</v>
+        <v>0.9197911660182022</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05515082786149161</v>
+        <v>0.2866217928783233</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5787014062097569</v>
+        <v>1.227196980929771</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3028815165720681</v>
+        <v>0.5991783466804349</v>
       </c>
       <c r="L3" t="n">
-        <v>2.410485040648787</v>
+        <v>0.793742052218559</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3076515976876404</v>
+        <v>0.6086148066820478</v>
       </c>
       <c r="N3" t="n">
-        <v>134.7776543374491</v>
+        <v>36.04878393792304</v>
       </c>
       <c r="O3" t="n">
-        <v>276.1128268806655</v>
+        <v>73.01336752614885</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9777798502169319</v>
+        <v>0.849961544484966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.770073701425523</v>
+        <v>0.6313640919367455</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7903479970962392</v>
+        <v>0.7394193436789469</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9815575307014818</v>
+        <v>0.8272144893468905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09249196667964241</v>
+        <v>0.3556200422517375</v>
       </c>
       <c r="G4" t="n">
-        <v>1.537518217280784</v>
+        <v>2.465070014631262</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7499130580651656</v>
+        <v>0.9320818983258251</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05146403776173633</v>
+        <v>0.2244419324219539</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5722663154660852</v>
+        <v>1.2311294188064</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3041249195308441</v>
+        <v>0.5963388652869587</v>
       </c>
       <c r="L4" t="n">
-        <v>2.422089586116357</v>
+        <v>0.7956923158944218</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3089145830000702</v>
+        <v>0.6057306062950644</v>
       </c>
       <c r="N4" t="n">
-        <v>134.7612669698835</v>
+        <v>36.06778483028573</v>
       </c>
       <c r="O4" t="n">
-        <v>276.0964395130998</v>
+        <v>73.03236841851155</v>
       </c>
     </row>
     <row r="5">
@@ -659,340 +659,340 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9775975044652915</v>
+        <v>0.8499889773695402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7699204194497817</v>
+        <v>0.6312426154404537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7913479947223888</v>
+        <v>0.7393443825390775</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9829095190899937</v>
+        <v>0.8283718313140184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09325098573889963</v>
+        <v>0.3555550210307586</v>
       </c>
       <c r="G5" t="n">
-        <v>1.538543214558364</v>
+        <v>2.465882328521313</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7463361245396223</v>
+        <v>0.9323500299766417</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04769129017823352</v>
+        <v>0.2229385883823213</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5646667495981509</v>
+        <v>1.23036231696633</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3053702437024597</v>
+        <v>0.5962843457871074</v>
       </c>
       <c r="L5" t="n">
-        <v>2.433759714221345</v>
+        <v>0.7957296713117142</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3101795197825213</v>
+        <v>0.6056752281675899</v>
       </c>
       <c r="N5" t="n">
-        <v>134.7449212991751</v>
+        <v>36.06815054176532</v>
       </c>
       <c r="O5" t="n">
-        <v>276.0800938423915</v>
+        <v>73.03273412999114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_5</t>
+          <t>model_1_10_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.977343515663317</v>
+        <v>0.8499795194036807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7697020779835776</v>
+        <v>0.6311490609014959</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7920204590522311</v>
+        <v>0.7391777698607797</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9838093982734499</v>
+        <v>0.8306813418034769</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09430822090781527</v>
+        <v>0.3555774382317822</v>
       </c>
       <c r="G6" t="n">
-        <v>1.540003264948241</v>
+        <v>2.466507928154102</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7439307586234987</v>
+        <v>0.9329459938661548</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04518016135221946</v>
+        <v>0.219938620414848</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5586526481651135</v>
+        <v>1.232735292947145</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3070964358435559</v>
+        <v>0.5963031428994671</v>
       </c>
       <c r="L6" t="n">
-        <v>2.450014997547711</v>
+        <v>0.7957167923794801</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3119328977242807</v>
+        <v>0.605694321315679</v>
       </c>
       <c r="N6" t="n">
-        <v>134.7223738298096</v>
+        <v>36.06802444879494</v>
       </c>
       <c r="O6" t="n">
-        <v>276.0575463730261</v>
+        <v>73.03260803702076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_0</t>
+          <t>model_1_10_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9755590012670693</v>
+        <v>0.8499694033451499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7696962888016636</v>
+        <v>0.6311101661295566</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7973979632475015</v>
+        <v>0.7392492448569382</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9877260401343003</v>
+        <v>0.8295577024060306</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1017363097230786</v>
+        <v>0.3556014152392087</v>
       </c>
       <c r="G7" t="n">
-        <v>1.540041977234356</v>
+        <v>2.466768017673155</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7246957379226246</v>
+        <v>0.932690331949254</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0342507027551432</v>
+        <v>0.2213981860737683</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5230414300094726</v>
+        <v>1.232578150655218</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3189612981586928</v>
+        <v>0.5963232472738328</v>
       </c>
       <c r="L7" t="n">
-        <v>2.564223918907565</v>
+        <v>0.7957030173210552</v>
       </c>
       <c r="M7" t="n">
-        <v>0.32398461976037</v>
+        <v>0.605714742313844</v>
       </c>
       <c r="N7" t="n">
-        <v>134.570742023776</v>
+        <v>36.06788959097503</v>
       </c>
       <c r="O7" t="n">
-        <v>275.9059145669924</v>
+        <v>73.03247317920085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_4</t>
+          <t>model_1_10_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9770970118667629</v>
+        <v>0.8497991168401491</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7696276348107424</v>
+        <v>0.6309921950408413</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7928536752207684</v>
+        <v>0.7384965567923516</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9848283562143905</v>
+        <v>0.8387258257536406</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09533429954184242</v>
+        <v>0.3560050270592278</v>
       </c>
       <c r="G8" t="n">
-        <v>1.540501066787769</v>
+        <v>2.467556890886601</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7409503927012897</v>
+        <v>0.9353826535129189</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04233674114089234</v>
+        <v>0.2094891358701805</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5518956917022826</v>
+        <v>1.245314922218833</v>
       </c>
       <c r="K8" t="n">
-        <v>0.30876252936819</v>
+        <v>0.5966615682773844</v>
       </c>
       <c r="L8" t="n">
-        <v>2.465791240527174</v>
+        <v>0.7954711378248839</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3136252305564453</v>
+        <v>0.6060583915350046</v>
       </c>
       <c r="N8" t="n">
-        <v>134.7007312436549</v>
+        <v>36.06562085455384</v>
       </c>
       <c r="O8" t="n">
-        <v>276.0359037868713</v>
+        <v>73.03020444277966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_1</t>
+          <t>model_1_10_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9758939715712233</v>
+        <v>0.8498003920013864</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7695514314850846</v>
+        <v>0.6309604175832908</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7967081629681424</v>
+        <v>0.7384272331469606</v>
       </c>
       <c r="E9" t="n">
-        <v>0.987263109341794</v>
+        <v>0.8398404307648565</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1003419868893915</v>
+        <v>0.3560020046814546</v>
       </c>
       <c r="G9" t="n">
-        <v>1.541010638777327</v>
+        <v>2.467769386891563</v>
       </c>
       <c r="H9" t="n">
-        <v>0.727163113524974</v>
+        <v>0.9356306201728668</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03554251934439661</v>
+        <v>0.2080413055419378</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5280087589742113</v>
+        <v>1.245108484712675</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3167680332505026</v>
+        <v>0.5966590355315627</v>
       </c>
       <c r="L9" t="n">
-        <v>2.542785819441711</v>
+        <v>0.7954728742146537</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3217568131223363</v>
+        <v>0.606055818900968</v>
       </c>
       <c r="N9" t="n">
-        <v>134.598342117107</v>
+        <v>36.06563783403656</v>
       </c>
       <c r="O9" t="n">
-        <v>275.9335146603234</v>
+        <v>73.03022142226239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_2</t>
+          <t>model_1_10_0</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9762166241806852</v>
+        <v>0.8479123415004085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7695104156758825</v>
+        <v>0.6302286523352638</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7961360672317356</v>
+        <v>0.7352832533738209</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9867414448332102</v>
+        <v>0.8683909100222067</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09899893678870345</v>
+        <v>0.3604770480736727</v>
       </c>
       <c r="G10" t="n">
-        <v>1.541284911682322</v>
+        <v>2.472662704474589</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7292094668020844</v>
+        <v>0.9468764535229656</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0369982334103468</v>
+        <v>0.1709552980875433</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5332206497444908</v>
+        <v>1.290249489019708</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3146409648928497</v>
+        <v>0.6003974084501636</v>
       </c>
       <c r="L10" t="n">
-        <v>2.522136052436146</v>
+        <v>0.7929019118303435</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3195962455643386</v>
+        <v>0.6098530674560351</v>
       </c>
       <c r="N10" t="n">
-        <v>134.6252923368265</v>
+        <v>36.04065398241717</v>
       </c>
       <c r="O10" t="n">
-        <v>275.9604648800429</v>
+        <v>73.00523757064299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_3</t>
+          <t>model_1_10_1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9768014754721288</v>
+        <v>0.8491668192475736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7695005512004596</v>
+        <v>0.6296936899710479</v>
       </c>
       <c r="D11" t="n">
-        <v>0.793869086510174</v>
+        <v>0.7371932620849273</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9855149548377875</v>
+        <v>0.8523547229119477</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09656447767439219</v>
+        <v>0.3575036941563762</v>
       </c>
       <c r="G11" t="n">
-        <v>1.541350875474897</v>
+        <v>2.476240000267375</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7373183253960157</v>
+        <v>0.9400444631120064</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04042077550149172</v>
+        <v>0.1917857068996134</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5459437869873812</v>
+        <v>1.269918031412602</v>
       </c>
       <c r="K11" t="n">
-        <v>0.310748254499349</v>
+        <v>0.5979161263558428</v>
       </c>
       <c r="L11" t="n">
-        <v>2.484705569783756</v>
+        <v>0.7946101368477598</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3156422288734231</v>
+        <v>0.6073327076491009</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6750886626588</v>
+        <v>36.05721916719383</v>
       </c>
       <c r="O11" t="n">
-        <v>276.0102612058752</v>
+        <v>73.02180275541964</v>
       </c>
     </row>
   </sheetData>
